--- a/Data/statistics_all_countries.xlsx
+++ b/Data/statistics_all_countries.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t xml:space="preserve">variable_name</t>
   </si>
@@ -53,82 +53,94 @@
     <t xml:space="preserve">happiness</t>
   </si>
   <si>
+    <t xml:space="preserve">-1 - 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gen_trust</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1 - 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">health</t>
+  </si>
+  <si>
     <t xml:space="preserve">1 - 4</t>
   </si>
   <si>
-    <t xml:space="preserve">gen_trust</t>
+    <t xml:space="preserve">free_choice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1 - 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">life_satis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">financial_satis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sign_pet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1 - 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">join_boycott</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attend_demo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">join_strike</t>
+  </si>
+  <si>
+    <t xml:space="preserve">religiosity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18 - 99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gender</t>
   </si>
   <si>
     <t xml:space="preserve">1 - 2</t>
   </si>
   <si>
-    <t xml:space="preserve">health</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 - 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">free_choice</t>
+    <t xml:space="preserve">employment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1 - 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18 - 83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1 - 7</t>
   </si>
   <si>
     <t xml:space="preserve">1 - 10</t>
   </si>
   <si>
-    <t xml:space="preserve">life_satis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">financial_satis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sign_pet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 - 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">join_boycott</t>
-  </si>
-  <si>
-    <t xml:space="preserve">attend_demo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">join_strike</t>
-  </si>
-  <si>
-    <t xml:space="preserve">religiosity</t>
+    <t xml:space="preserve">18 - 84</t>
   </si>
   <si>
     <t xml:space="preserve">1 - 8</t>
   </si>
   <si>
-    <t xml:space="preserve">age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18 - 99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gender</t>
-  </si>
-  <si>
-    <t xml:space="preserve">employment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18 - 83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 - 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18 - 84</t>
-  </si>
-  <si>
     <t xml:space="preserve">18 - 82</t>
   </si>
   <si>
     <t xml:space="preserve">18 - 85</t>
   </si>
   <si>
-    <t xml:space="preserve">18 - 94</t>
+    <t xml:space="preserve">-1 - 94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1 - 85</t>
   </si>
 </sst>
 </file>
@@ -497,19 +509,19 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>2.71391847227323</v>
+        <v>2.28497980168931</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
-        <v>0.839876006576357</v>
+        <v>0.843811783206867</v>
       </c>
       <c r="F2" t="n">
-        <v>0.916447492536456</v>
+        <v>0.91859228344618</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
@@ -518,10 +530,10 @@
         <v>2</v>
       </c>
       <c r="I2" t="n">
-        <v>0.119740039174679</v>
+        <v>-0.13211466239026</v>
       </c>
       <c r="J2" t="n">
-        <v>1.9001862312337</v>
+        <v>1.94204127228636</v>
       </c>
     </row>
     <row r="3">
@@ -529,7 +541,7 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>1.85273595299302</v>
+        <v>1.84943077488065</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -538,10 +550,10 @@
         <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>0.125623481686334</v>
+        <v>0.134557905106931</v>
       </c>
       <c r="F3" t="n">
-        <v>0.354434030090699</v>
+        <v>0.366821353122921</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>
@@ -550,10 +562,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.99078367547526</v>
+        <v>-2.28735201483979</v>
       </c>
       <c r="J3" t="n">
-        <v>4.96321964253879</v>
+        <v>8.27596027922672</v>
       </c>
     </row>
     <row r="4">
@@ -561,19 +573,19 @@
         <v>14</v>
       </c>
       <c r="B4" t="n">
-        <v>2.42857142857143</v>
+        <v>2.57803892765332</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>0.794583814422169</v>
+        <v>0.767144279160055</v>
       </c>
       <c r="F4" t="n">
-        <v>0.891394309170845</v>
+        <v>0.875867729260563</v>
       </c>
       <c r="G4" t="s">
         <v>15</v>
@@ -582,10 +594,10 @@
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>0.35268476174119</v>
+        <v>-0.26525111342927</v>
       </c>
       <c r="J4" t="n">
-        <v>2.60203813286473</v>
+        <v>2.37626030317473</v>
       </c>
     </row>
     <row r="5">
@@ -593,7 +605,7 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>6.39662137348513</v>
+        <v>6.33565919941241</v>
       </c>
       <c r="C5" t="n">
         <v>7</v>
@@ -602,10 +614,10 @@
         <v>8</v>
       </c>
       <c r="E5" t="n">
-        <v>5.42455874968261</v>
+        <v>5.87259643340818</v>
       </c>
       <c r="F5" t="n">
-        <v>2.3290682149054</v>
+        <v>2.42334406005589</v>
       </c>
       <c r="G5" t="s">
         <v>17</v>
@@ -614,10 +626,10 @@
         <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.538246545517482</v>
+        <v>-0.642070083613877</v>
       </c>
       <c r="J5" t="n">
-        <v>2.71179394115995</v>
+        <v>2.97693014598669</v>
       </c>
     </row>
     <row r="6">
@@ -625,7 +637,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>5.38817480719794</v>
+        <v>5.38082996694822</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -634,10 +646,10 @@
         <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>7.07079325084194</v>
+        <v>7.11538549752928</v>
       </c>
       <c r="F6" t="n">
-        <v>2.65909632221963</v>
+        <v>2.66746799372163</v>
       </c>
       <c r="G6" t="s">
         <v>17</v>
@@ -646,10 +658,10 @@
         <v>5</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.14269300803627</v>
+        <v>-0.148240144859002</v>
       </c>
       <c r="J6" t="n">
-        <v>2.02235244602609</v>
+        <v>2.03166919752124</v>
       </c>
     </row>
     <row r="7">
@@ -657,7 +669,7 @@
         <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>4.85016525890562</v>
+        <v>4.84759456481822</v>
       </c>
       <c r="C7" t="n">
         <v>5</v>
@@ -666,10 +678,10 @@
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>6.77327973021069</v>
+        <v>6.78536067024231</v>
       </c>
       <c r="F7" t="n">
-        <v>2.60255254129685</v>
+        <v>2.60487248636902</v>
       </c>
       <c r="G7" t="s">
         <v>17</v>
@@ -678,10 +690,10 @@
         <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0796389964948177</v>
+        <v>0.0781936492235081</v>
       </c>
       <c r="J7" t="n">
-        <v>2.00517952927257</v>
+        <v>2.00768431158571</v>
       </c>
     </row>
     <row r="8">
@@ -689,19 +701,19 @@
         <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>2.88982739625413</v>
+        <v>1.08446566287183</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>0.166402725523967</v>
+        <v>0.222840888148229</v>
       </c>
       <c r="F8" t="n">
-        <v>0.40792490181891</v>
+        <v>0.472060259022329</v>
       </c>
       <c r="G8" t="s">
         <v>21</v>
@@ -710,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>-3.81439046833094</v>
+        <v>1.47633756289064</v>
       </c>
       <c r="J8" t="n">
-        <v>16.6977619989615</v>
+        <v>14.7506099776117</v>
       </c>
     </row>
     <row r="9">
@@ -721,19 +733,19 @@
         <v>22</v>
       </c>
       <c r="B9" t="n">
-        <v>2.89313257436651</v>
+        <v>1.08850532500918</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0.161609691087676</v>
+        <v>0.201936156014984</v>
       </c>
       <c r="F9" t="n">
-        <v>0.40200707840494</v>
+        <v>0.449373069970803</v>
       </c>
       <c r="G9" t="s">
         <v>21</v>
@@ -742,10 +754,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>-3.8834849569241</v>
+        <v>1.95644145771336</v>
       </c>
       <c r="J9" t="n">
-        <v>17.2653253654209</v>
+        <v>15.8073803341288</v>
       </c>
     </row>
     <row r="10">
@@ -753,19 +765,19 @@
         <v>23</v>
       </c>
       <c r="B10" t="n">
-        <v>2.91149467499082</v>
+        <v>1.06867425633492</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0.137277816558702</v>
+        <v>0.180072709061488</v>
       </c>
       <c r="F10" t="n">
-        <v>0.370510211139588</v>
+        <v>0.424349748511163</v>
       </c>
       <c r="G10" t="s">
         <v>21</v>
@@ -774,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>-4.34823613791461</v>
+        <v>1.85196208178369</v>
       </c>
       <c r="J10" t="n">
-        <v>21.221397881075</v>
+        <v>18.4885380615887</v>
       </c>
     </row>
     <row r="11">
@@ -785,19 +797,19 @@
         <v>24</v>
       </c>
       <c r="B11" t="n">
-        <v>2.96547925082629</v>
+        <v>1.0132207124495</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0473016346721792</v>
+        <v>0.0909346268742902</v>
       </c>
       <c r="F11" t="n">
-        <v>0.21748938979219</v>
+        <v>0.30155368821205</v>
       </c>
       <c r="G11" t="s">
         <v>21</v>
@@ -806,10 +818,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-6.94891783464779</v>
+        <v>-0.453229178128967</v>
       </c>
       <c r="J11" t="n">
-        <v>54.5673723439795</v>
+        <v>36.6897850353046</v>
       </c>
     </row>
     <row r="12">
@@ -817,36 +829,36 @@
         <v>25</v>
       </c>
       <c r="B12" t="n">
-        <v>1.63275798751377</v>
+        <v>-0.06426735218509</v>
       </c>
       <c r="C12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1.32540529513872</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.15126247881998</v>
+      </c>
+      <c r="G12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" t="n">
         <v>2</v>
       </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.651270384832392</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.807013249477598</v>
-      </c>
-      <c r="G12" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
       <c r="I12" t="n">
-        <v>2.59369503115969</v>
+        <v>0.558985833739598</v>
       </c>
       <c r="J12" t="n">
-        <v>17.6738594124042</v>
+        <v>1.62140531313039</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" t="n">
         <v>40.2148365773044</v>
@@ -864,7 +876,7 @@
         <v>14.4945620627527</v>
       </c>
       <c r="G13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H13" t="n">
         <v>23</v>
@@ -878,7 +890,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" t="n">
         <v>1.5919941241278</v>
@@ -896,7 +908,7 @@
         <v>0.491554489631615</v>
       </c>
       <c r="G14" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
@@ -913,7 +925,7 @@
         <v>30</v>
       </c>
       <c r="B15" t="n">
-        <v>3.78736687477047</v>
+        <v>3.78626514873302</v>
       </c>
       <c r="C15" t="n">
         <v>5</v>
@@ -922,22 +934,22 @@
         <v>5</v>
       </c>
       <c r="E15" t="n">
-        <v>3.41803285102575</v>
+        <v>3.42527785325592</v>
       </c>
       <c r="F15" t="n">
-        <v>1.84879226821884</v>
+        <v>1.85075061887222</v>
       </c>
       <c r="G15" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H15" t="n">
         <v>3</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.334221906652976</v>
+        <v>-0.337404633858356</v>
       </c>
       <c r="J15" t="n">
-        <v>1.80830441576594</v>
+        <v>1.81599124650731</v>
       </c>
     </row>
   </sheetData>
@@ -991,19 +1003,19 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>2.23375</v>
+        <v>2.71541666666667</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
-        <v>0.608531158816173</v>
+        <v>0.793092781714603</v>
       </c>
       <c r="F2" t="n">
-        <v>0.780084071633419</v>
+        <v>0.890557567883516</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
@@ -1012,10 +1024,10 @@
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0.483598633176422</v>
+        <v>-1.16131021831292</v>
       </c>
       <c r="J2" t="n">
-        <v>3.01621904988056</v>
+        <v>5.75818476683419</v>
       </c>
     </row>
     <row r="3">
@@ -1023,7 +1035,7 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>1.79375</v>
+        <v>1.67</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1032,10 +1044,10 @@
         <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>0.16377917882451</v>
+        <v>0.471296373488954</v>
       </c>
       <c r="F3" t="n">
-        <v>0.404696403275975</v>
+        <v>0.686510286513577</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>
@@ -1044,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.45200804686816</v>
+        <v>-2.55970346547292</v>
       </c>
       <c r="J3" t="n">
-        <v>3.10832736816989</v>
+        <v>9.76769017408278</v>
       </c>
     </row>
     <row r="4">
@@ -1055,31 +1067,31 @@
         <v>14</v>
       </c>
       <c r="B4" t="n">
-        <v>2.32166666666667</v>
+        <v>2.68791666666667</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>0.861889676253995</v>
+        <v>0.811692198138113</v>
       </c>
       <c r="F4" t="n">
-        <v>0.928380135641643</v>
+        <v>0.900939619585083</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>0.512100632439384</v>
+        <v>-0.379100470691194</v>
       </c>
       <c r="J4" t="n">
-        <v>3.00112879802488</v>
+        <v>2.79398634806315</v>
       </c>
     </row>
     <row r="5">
@@ -1087,7 +1099,7 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>6.65458333333333</v>
+        <v>6.6425</v>
       </c>
       <c r="C5" t="n">
         <v>7</v>
@@ -1096,10 +1108,10 @@
         <v>7</v>
       </c>
       <c r="E5" t="n">
-        <v>4.925656349868</v>
+        <v>5.01678407669862</v>
       </c>
       <c r="F5" t="n">
-        <v>2.21938197475513</v>
+        <v>2.23981786685851</v>
       </c>
       <c r="G5" t="s">
         <v>17</v>
@@ -1108,10 +1120,10 @@
         <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.382799850438585</v>
+        <v>-0.421076866473873</v>
       </c>
       <c r="J5" t="n">
-        <v>2.64441973234701</v>
+        <v>2.76448321636861</v>
       </c>
     </row>
     <row r="6">
@@ -1119,7 +1131,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>5.18791666666667</v>
+        <v>5.16375</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -1128,10 +1140,10 @@
         <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>4.69372637904682</v>
+        <v>4.83478376406836</v>
       </c>
       <c r="F6" t="n">
-        <v>2.16650095293005</v>
+        <v>2.19881417224566</v>
       </c>
       <c r="G6" t="s">
         <v>17</v>
@@ -1140,10 +1152,10 @@
         <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>0.34452723249563</v>
+        <v>0.278870496739604</v>
       </c>
       <c r="J6" t="n">
-        <v>2.49401145636805</v>
+        <v>2.5974749452843</v>
       </c>
     </row>
     <row r="7">
@@ -1151,7 +1163,7 @@
         <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>5.15083333333333</v>
+        <v>5.13958333333333</v>
       </c>
       <c r="C7" t="n">
         <v>5</v>
@@ -1160,10 +1172,10 @@
         <v>5</v>
       </c>
       <c r="E7" t="n">
-        <v>4.17565582881756</v>
+        <v>4.25103775878838</v>
       </c>
       <c r="F7" t="n">
-        <v>2.04344215206048</v>
+        <v>2.06180449092255</v>
       </c>
       <c r="G7" t="s">
         <v>17</v>
@@ -1172,10 +1184,10 @@
         <v>3</v>
       </c>
       <c r="I7" t="n">
-        <v>0.312957225529565</v>
+        <v>0.266285557045217</v>
       </c>
       <c r="J7" t="n">
-        <v>2.70103448319774</v>
+        <v>2.77628410132351</v>
       </c>
     </row>
     <row r="8">
@@ -1183,19 +1195,19 @@
         <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>2.58666666666667</v>
+        <v>1.33208333333333</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>0.483523690426567</v>
+        <v>0.667915624565791</v>
       </c>
       <c r="F8" t="n">
-        <v>0.695358677537403</v>
+        <v>0.817261050439694</v>
       </c>
       <c r="G8" t="s">
         <v>21</v>
@@ -1204,10 +1216,10 @@
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>-1.38655074889665</v>
+        <v>0.270984813563147</v>
       </c>
       <c r="J8" t="n">
-        <v>3.44287350960627</v>
+        <v>4.44795802181286</v>
       </c>
     </row>
     <row r="9">
@@ -1215,19 +1227,19 @@
         <v>22</v>
       </c>
       <c r="B9" t="n">
-        <v>2.72541666666667</v>
+        <v>1.19458333333333</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0.29014155203557</v>
+        <v>0.462746804223982</v>
       </c>
       <c r="F9" t="n">
-        <v>0.538647892445121</v>
+        <v>0.680254955310126</v>
       </c>
       <c r="G9" t="s">
         <v>21</v>
@@ -1236,10 +1248,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>-1.84059689336331</v>
+        <v>-0.0804223874236276</v>
       </c>
       <c r="J9" t="n">
-        <v>5.44261186701661</v>
+        <v>6.49008423071419</v>
       </c>
     </row>
     <row r="10">
@@ -1247,19 +1259,19 @@
         <v>23</v>
       </c>
       <c r="B10" t="n">
-        <v>2.52791666666667</v>
+        <v>1.415</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0.511100284840906</v>
+        <v>0.647211338057524</v>
       </c>
       <c r="F10" t="n">
-        <v>0.714912781282379</v>
+        <v>0.804494461172682</v>
       </c>
       <c r="G10" t="s">
         <v>21</v>
@@ -1268,10 +1280,10 @@
         <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>-1.17297888543048</v>
+        <v>0.347042118055813</v>
       </c>
       <c r="J10" t="n">
-        <v>2.91988557199972</v>
+        <v>4.00497955220777</v>
       </c>
     </row>
     <row r="11">
@@ -1279,19 +1291,19 @@
         <v>24</v>
       </c>
       <c r="B11" t="n">
-        <v>2.72208333333333</v>
+        <v>1.19125</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>0.302471689592886</v>
+        <v>0.481540746144227</v>
       </c>
       <c r="F11" t="n">
-        <v>0.549974262664069</v>
+        <v>0.693931369909321</v>
       </c>
       <c r="G11" t="s">
         <v>21</v>
@@ -1300,10 +1312,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-1.86090010893165</v>
+        <v>-0.0356767329522315</v>
       </c>
       <c r="J11" t="n">
-        <v>5.46516020953507</v>
+        <v>6.38814552218166</v>
       </c>
     </row>
     <row r="12">
@@ -1311,7 +1323,7 @@
         <v>25</v>
       </c>
       <c r="B12" t="n">
-        <v>1.96958333333333</v>
+        <v>1.06291666666667</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -1320,27 +1332,27 @@
         <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>4.2370902806725</v>
+        <v>0.545018584132277</v>
       </c>
       <c r="F12" t="n">
-        <v>2.05841936462726</v>
+        <v>0.738253739666977</v>
       </c>
       <c r="G12" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>2.11886620106486</v>
+        <v>-0.827289354139208</v>
       </c>
       <c r="J12" t="n">
-        <v>6.14477059575063</v>
+        <v>6.0125614877751</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" t="n">
         <v>36.6041666666667</v>
@@ -1358,7 +1370,7 @@
         <v>13.3969747403647</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H13" t="n">
         <v>21</v>
@@ -1372,7 +1384,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" t="n">
         <v>1.48458333333333</v>
@@ -1390,7 +1402,7 @@
         <v>0.49986641956074</v>
       </c>
       <c r="G14" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
@@ -1407,7 +1419,7 @@
         <v>30</v>
       </c>
       <c r="B15" t="n">
-        <v>3.89166666666667</v>
+        <v>3.84333333333333</v>
       </c>
       <c r="C15" t="n">
         <v>5</v>
@@ -1416,22 +1428,22 @@
         <v>5</v>
       </c>
       <c r="E15" t="n">
-        <v>3.80318188133945</v>
+        <v>4.0196304015562</v>
       </c>
       <c r="F15" t="n">
-        <v>1.95017483353146</v>
+        <v>2.00490159398316</v>
       </c>
       <c r="G15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H15" t="n">
         <v>3</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.200215308584685</v>
+        <v>-0.25135343804211</v>
       </c>
       <c r="J15" t="n">
-        <v>1.82308031499944</v>
+        <v>1.94261881634447</v>
       </c>
     </row>
   </sheetData>
@@ -1485,19 +1497,19 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>1.95131086142322</v>
+        <v>3.04203079483978</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
-        <v>0.473481836297467</v>
+        <v>0.500730595221141</v>
       </c>
       <c r="F2" t="n">
-        <v>0.688100164436449</v>
+        <v>0.707623201443495</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
@@ -1506,10 +1518,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.768645442908722</v>
+        <v>-0.990500284706975</v>
       </c>
       <c r="J2" t="n">
-        <v>4.3620179032168</v>
+        <v>5.64769589759033</v>
       </c>
     </row>
     <row r="3">
@@ -1517,7 +1529,7 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>1.85434873075323</v>
+        <v>1.84560965459842</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1526,10 +1538,10 @@
         <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>0.124488782582693</v>
+        <v>0.148093747650297</v>
       </c>
       <c r="F3" t="n">
-        <v>0.352829679282644</v>
+        <v>0.384829504651472</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>
@@ -1538,10 +1550,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-2.00902874714477</v>
+        <v>-2.66979072243684</v>
       </c>
       <c r="J3" t="n">
-        <v>5.03619650685408</v>
+        <v>12.1368653844047</v>
       </c>
     </row>
     <row r="4">
@@ -1549,31 +1561,31 @@
         <v>14</v>
       </c>
       <c r="B4" t="n">
-        <v>1.85226799833541</v>
+        <v>3.15064502704952</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>0.744610799087873</v>
+        <v>0.727504787763561</v>
       </c>
       <c r="F4" t="n">
-        <v>0.862908337593208</v>
+        <v>0.852938912093686</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>0.883599948383475</v>
+        <v>-0.815984063452383</v>
       </c>
       <c r="J4" t="n">
-        <v>3.38886417625949</v>
+        <v>3.12846540214732</v>
       </c>
     </row>
     <row r="5">
@@ -1596,7 +1608,7 @@
         <v>2.20576910086165</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="H5" t="n">
         <v>3</v>
@@ -1628,7 +1640,7 @@
         <v>2.33617255932021</v>
       </c>
       <c r="G6" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="H6" t="n">
         <v>3</v>
@@ -1660,7 +1672,7 @@
         <v>2.51060737133977</v>
       </c>
       <c r="G7" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="H7" t="n">
         <v>3</v>
@@ -1677,19 +1689,19 @@
         <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>2.75738660008323</v>
+        <v>1.17977528089888</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>0.298732884200051</v>
+        <v>0.427284379122267</v>
       </c>
       <c r="F8" t="n">
-        <v>0.54656462033327</v>
+        <v>0.653669931327935</v>
       </c>
       <c r="G8" t="s">
         <v>21</v>
@@ -1698,10 +1710,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>-2.17902878681287</v>
+        <v>0.442057025122152</v>
       </c>
       <c r="J8" t="n">
-        <v>6.6462609516695</v>
+        <v>7.15686259823179</v>
       </c>
     </row>
     <row r="9">
@@ -1709,19 +1721,19 @@
         <v>22</v>
       </c>
       <c r="B9" t="n">
-        <v>2.75447357469829</v>
+        <v>1.20765709529754</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0.308550961312237</v>
+        <v>0.400241094690477</v>
       </c>
       <c r="F9" t="n">
-        <v>0.555473636919194</v>
+        <v>0.632646105410028</v>
       </c>
       <c r="G9" t="s">
         <v>21</v>
@@ -1730,10 +1742,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>-2.17815817247131</v>
+        <v>0.816612546594605</v>
       </c>
       <c r="J9" t="n">
-        <v>6.58276460834748</v>
+        <v>7.05971121624366</v>
       </c>
     </row>
     <row r="10">
@@ -1741,19 +1753,19 @@
         <v>23</v>
       </c>
       <c r="B10" t="n">
-        <v>2.81190178942988</v>
+        <v>1.1464835622139</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0.237710078610452</v>
+        <v>0.332405406369986</v>
       </c>
       <c r="F10" t="n">
-        <v>0.487555205705417</v>
+        <v>0.576546100819342</v>
       </c>
       <c r="G10" t="s">
         <v>21</v>
@@ -1762,10 +1774,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>-2.60775743719867</v>
+        <v>0.676978706696616</v>
       </c>
       <c r="J10" t="n">
-        <v>8.91633410350108</v>
+        <v>8.95433937734303</v>
       </c>
     </row>
     <row r="11">
@@ -1773,19 +1785,19 @@
         <v>24</v>
       </c>
       <c r="B11" t="n">
-        <v>2.85060341240117</v>
+        <v>1.11027881814399</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>0.191243390945886</v>
+        <v>0.277175734051558</v>
       </c>
       <c r="F11" t="n">
-        <v>0.437313835758584</v>
+        <v>0.526474818060236</v>
       </c>
       <c r="G11" t="s">
         <v>21</v>
@@ -1794,10 +1806,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-3.02273989100569</v>
+        <v>0.649221821401308</v>
       </c>
       <c r="J11" t="n">
-        <v>11.5185074759166</v>
+        <v>10.9601097617606</v>
       </c>
     </row>
     <row r="12">
@@ -1805,7 +1817,7 @@
         <v>25</v>
       </c>
       <c r="B12" t="n">
-        <v>1.60965459841864</v>
+        <v>1.18435289221806</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -1814,27 +1826,27 @@
         <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>2.70102248680961</v>
+        <v>0.196224674749125</v>
       </c>
       <c r="F12" t="n">
-        <v>1.64347877589265</v>
+        <v>0.442972544012747</v>
       </c>
       <c r="G12" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>2.99410272261139</v>
+        <v>0.427654611851007</v>
       </c>
       <c r="J12" t="n">
-        <v>11.0619804671125</v>
+        <v>6.9258466937037</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" t="n">
         <v>41.5513940907199</v>
@@ -1852,7 +1864,7 @@
         <v>15.2563223518207</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H13" t="n">
         <v>23</v>
@@ -1866,7 +1878,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" t="n">
         <v>1.49771119434041</v>
@@ -1884,7 +1896,7 @@
         <v>0.500098829353855</v>
       </c>
       <c r="G14" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
@@ -1916,7 +1928,7 @@
         <v>1.9619571786748</v>
       </c>
       <c r="G15" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="H15" t="n">
         <v>3</v>
@@ -1979,19 +1991,19 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>2.055</v>
+        <v>2.92583333333333</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
-        <v>0.454020016680567</v>
+        <v>0.530774951348346</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6738100746357</v>
+        <v>0.728543033285163</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
@@ -2000,10 +2012,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.359960766979237</v>
+        <v>-0.998836273160207</v>
       </c>
       <c r="J2" t="n">
-        <v>3.32487089808756</v>
+        <v>6.62698632386331</v>
       </c>
     </row>
     <row r="3">
@@ -2011,7 +2023,7 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>1.90166666666667</v>
+        <v>1.60666666666667</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -2020,10 +2032,10 @@
         <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0887378370864609</v>
+        <v>0.829313316652766</v>
       </c>
       <c r="F3" t="n">
-        <v>0.297888967715256</v>
+        <v>0.91066641348672</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>
@@ -2032,10 +2044,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-2.69787857894265</v>
+        <v>-2.27328989810663</v>
       </c>
       <c r="J3" t="n">
-        <v>8.27854882671763</v>
+        <v>6.65935438556946</v>
       </c>
     </row>
     <row r="4">
@@ -2043,19 +2055,19 @@
         <v>14</v>
       </c>
       <c r="B4" t="n">
-        <v>2.02</v>
+        <v>2.96666666666667</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>0.585087572977481</v>
+        <v>0.637753683625243</v>
       </c>
       <c r="F4" t="n">
-        <v>0.764910173142887</v>
+        <v>0.798594818180811</v>
       </c>
       <c r="G4" t="s">
         <v>11</v>
@@ -2064,10 +2076,10 @@
         <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0.257094202940831</v>
+        <v>-0.588935666599646</v>
       </c>
       <c r="J4" t="n">
-        <v>2.44150998913966</v>
+        <v>4.07371491073716</v>
       </c>
     </row>
     <row r="5">
@@ -2075,7 +2087,7 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>6.97166666666667</v>
+        <v>6.94166666666667</v>
       </c>
       <c r="C5" t="n">
         <v>7</v>
@@ -2084,10 +2096,10 @@
         <v>7</v>
       </c>
       <c r="E5" t="n">
-        <v>3.75232415902141</v>
+        <v>3.95822907978871</v>
       </c>
       <c r="F5" t="n">
-        <v>1.93709167543031</v>
+        <v>1.98952986401027</v>
       </c>
       <c r="G5" t="s">
         <v>17</v>
@@ -2096,10 +2108,10 @@
         <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.350523397437285</v>
+        <v>-0.494079643205863</v>
       </c>
       <c r="J5" t="n">
-        <v>3.05435998432349</v>
+        <v>3.57324576438189</v>
       </c>
     </row>
     <row r="6">
@@ -2107,7 +2119,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>6.50416666666667</v>
+        <v>6.46</v>
       </c>
       <c r="C6" t="n">
         <v>7</v>
@@ -2116,10 +2128,10 @@
         <v>7</v>
       </c>
       <c r="E6" t="n">
-        <v>4.46537044759522</v>
+        <v>4.79072560467056</v>
       </c>
       <c r="F6" t="n">
-        <v>2.11314231598234</v>
+        <v>2.18877262516474</v>
       </c>
       <c r="G6" t="s">
         <v>17</v>
@@ -2128,10 +2140,10 @@
         <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.355174912440585</v>
+        <v>-0.494430830756091</v>
       </c>
       <c r="J6" t="n">
-        <v>2.74621346863787</v>
+        <v>3.15080842264564</v>
       </c>
     </row>
     <row r="7">
@@ -2139,7 +2151,7 @@
         <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>5.99916666666667</v>
+        <v>5.9925</v>
       </c>
       <c r="C7" t="n">
         <v>6</v>
@@ -2148,10 +2160,10 @@
         <v>6</v>
       </c>
       <c r="E7" t="n">
-        <v>5.43035793716986</v>
+        <v>5.47033569641368</v>
       </c>
       <c r="F7" t="n">
-        <v>2.33031284105158</v>
+        <v>2.33887487831514</v>
       </c>
       <c r="G7" t="s">
         <v>17</v>
@@ -2160,10 +2172,10 @@
         <v>3</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.340802192248646</v>
+        <v>-0.350944186630054</v>
       </c>
       <c r="J7" t="n">
-        <v>2.63153357148489</v>
+        <v>2.65607360897354</v>
       </c>
     </row>
     <row r="8">
@@ -2171,19 +2183,19 @@
         <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>2.4525</v>
+        <v>1.34</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>0.421428273561301</v>
+        <v>0.853444537114262</v>
       </c>
       <c r="F8" t="n">
-        <v>0.64917507158031</v>
+        <v>0.923820619554609</v>
       </c>
       <c r="G8" t="s">
         <v>21</v>
@@ -2192,10 +2204,10 @@
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.775015570176019</v>
+        <v>-0.640162080340342</v>
       </c>
       <c r="J8" t="n">
-        <v>2.53738121907963</v>
+        <v>4.12440650134878</v>
       </c>
     </row>
     <row r="9">
@@ -2203,19 +2215,19 @@
         <v>22</v>
       </c>
       <c r="B9" t="n">
-        <v>2.525</v>
+        <v>1.24583333333333</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0.369683069224354</v>
+        <v>0.841100222407562</v>
       </c>
       <c r="F9" t="n">
-        <v>0.608015681725688</v>
+        <v>0.917115163110698</v>
       </c>
       <c r="G9" t="s">
         <v>21</v>
@@ -2224,10 +2236,10 @@
         <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.897442111664022</v>
+        <v>-0.731830147561623</v>
       </c>
       <c r="J9" t="n">
-        <v>2.79439477097237</v>
+        <v>4.15827591757852</v>
       </c>
     </row>
     <row r="10">
@@ -2235,19 +2247,19 @@
         <v>23</v>
       </c>
       <c r="B10" t="n">
-        <v>2.38</v>
+        <v>1.4525</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0.469324437030859</v>
+        <v>0.846782735613011</v>
       </c>
       <c r="F10" t="n">
-        <v>0.685072577929418</v>
+        <v>0.920207984975685</v>
       </c>
       <c r="G10" t="s">
         <v>21</v>
@@ -2256,10 +2268,10 @@
         <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.65226811323174</v>
+        <v>-0.582982671651153</v>
       </c>
       <c r="J10" t="n">
-        <v>2.29456462695633</v>
+        <v>4.08002470585544</v>
       </c>
     </row>
     <row r="11">
@@ -2267,19 +2279,19 @@
         <v>24</v>
       </c>
       <c r="B11" t="n">
-        <v>2.465</v>
+        <v>1.37</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>0.452485404503753</v>
+        <v>0.837130942452043</v>
       </c>
       <c r="F11" t="n">
-        <v>0.67267035351928</v>
+        <v>0.914948600989172</v>
       </c>
       <c r="G11" t="s">
         <v>21</v>
@@ -2288,10 +2300,10 @@
         <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.875795287003732</v>
+        <v>-0.52170884623427</v>
       </c>
       <c r="J11" t="n">
-        <v>2.59408407918128</v>
+        <v>4.11394976804329</v>
       </c>
     </row>
     <row r="12">
@@ -2299,36 +2311,36 @@
         <v>25</v>
       </c>
       <c r="B12" t="n">
-        <v>2.7075</v>
+        <v>1.28</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>4.25215387823186</v>
+        <v>0.503686405337782</v>
       </c>
       <c r="F12" t="n">
-        <v>2.06207513884239</v>
+        <v>0.70970867638615</v>
       </c>
       <c r="G12" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>1.46571166951417</v>
+        <v>-0.559335155215929</v>
       </c>
       <c r="J12" t="n">
-        <v>4.25322357882523</v>
+        <v>5.65563030326651</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" t="n">
         <v>38.3716666666667</v>
@@ -2346,7 +2358,7 @@
         <v>14.8543172009064</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H13" t="n">
         <v>27</v>
@@ -2360,7 +2372,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" t="n">
         <v>1.51</v>
@@ -2378,7 +2390,7 @@
         <v>0.500108411933258</v>
       </c>
       <c r="G14" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
@@ -2410,7 +2422,7 @@
         <v>2.11576929397087</v>
       </c>
       <c r="G15" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="H15" t="n">
         <v>4</v>
@@ -2473,19 +2485,19 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>2.05833333333333</v>
+        <v>2.93666666666667</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
-        <v>0.454286508267334</v>
+        <v>0.473686258163124</v>
       </c>
       <c r="F2" t="n">
-        <v>0.674007795405464</v>
+        <v>0.688248689183731</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
@@ -2494,10 +2506,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.567539502351723</v>
+        <v>-0.746190269241286</v>
       </c>
       <c r="J2" t="n">
-        <v>3.86846843930827</v>
+        <v>4.88197817153192</v>
       </c>
     </row>
     <row r="3">
@@ -2505,7 +2517,7 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>1.85583333333333</v>
+        <v>1.83208333333333</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -2514,10 +2526,10 @@
         <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>0.123434069751285</v>
+        <v>0.187298700847575</v>
       </c>
       <c r="F3" t="n">
-        <v>0.35133185131907</v>
+        <v>0.43278019923233</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>
@@ -2526,10 +2538,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-2.0260473800813</v>
+        <v>-3.19558614609985</v>
       </c>
       <c r="J3" t="n">
-        <v>5.10486798633429</v>
+        <v>16.5206345142459</v>
       </c>
     </row>
     <row r="4">
@@ -2537,31 +2549,31 @@
         <v>14</v>
       </c>
       <c r="B4" t="n">
-        <v>2.1625</v>
+        <v>2.84166666666667</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>0.772248853689037</v>
+        <v>0.75107683757121</v>
       </c>
       <c r="F4" t="n">
-        <v>0.878776907803703</v>
+        <v>0.866646893245</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H4" t="n">
         <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0.323490387419119</v>
+        <v>-0.238660080994404</v>
       </c>
       <c r="J4" t="n">
-        <v>2.59741840876367</v>
+        <v>2.3577755165161</v>
       </c>
     </row>
     <row r="5">
@@ -2569,19 +2581,19 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>6.50708333333333</v>
+        <v>6.0575</v>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
         <v>5</v>
       </c>
       <c r="E5" t="n">
-        <v>4.94200899680422</v>
+        <v>8.08589620675281</v>
       </c>
       <c r="F5" t="n">
-        <v>2.22306297634687</v>
+        <v>2.84357103072049</v>
       </c>
       <c r="G5" t="s">
         <v>17</v>
@@ -2590,10 +2602,10 @@
         <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.225028132383251</v>
+        <v>-0.746544050572574</v>
       </c>
       <c r="J5" t="n">
-        <v>2.6404843979227</v>
+        <v>3.31631934577033</v>
       </c>
     </row>
     <row r="6">
@@ -2601,7 +2613,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>6.3175</v>
+        <v>6.235</v>
       </c>
       <c r="C6" t="n">
         <v>6</v>
@@ -2610,10 +2622,10 @@
         <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>5.58068570237599</v>
+        <v>6.15233847436432</v>
       </c>
       <c r="F6" t="n">
-        <v>2.36234749822629</v>
+        <v>2.48039079065463</v>
       </c>
       <c r="G6" t="s">
         <v>17</v>
@@ -2622,10 +2634,10 @@
         <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.169665788505251</v>
+        <v>-0.334153858992688</v>
       </c>
       <c r="J6" t="n">
-        <v>2.46219858463042</v>
+        <v>2.82391016925264</v>
       </c>
     </row>
     <row r="7">
@@ -2633,7 +2645,7 @@
         <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>5.90416666666667</v>
+        <v>5.87333333333333</v>
       </c>
       <c r="C7" t="n">
         <v>6</v>
@@ -2642,10 +2654,10 @@
         <v>5</v>
       </c>
       <c r="E7" t="n">
-        <v>5.2163227733778</v>
+        <v>5.42538279838822</v>
       </c>
       <c r="F7" t="n">
-        <v>2.2839270508004</v>
+        <v>2.32924511341941</v>
       </c>
       <c r="G7" t="s">
         <v>17</v>
@@ -2654,10 +2666,10 @@
         <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.0244312978517655</v>
+        <v>-0.102845244899206</v>
       </c>
       <c r="J7" t="n">
-        <v>2.6881771706779</v>
+        <v>2.83162323555164</v>
       </c>
     </row>
     <row r="8">
@@ -2665,19 +2677,19 @@
         <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>2.55541666666667</v>
+        <v>1.3475</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>0.412100701681256</v>
+        <v>0.621169237182159</v>
       </c>
       <c r="F8" t="n">
-        <v>0.641950700351091</v>
+        <v>0.788142904035911</v>
       </c>
       <c r="G8" t="s">
         <v>21</v>
@@ -2686,10 +2698,10 @@
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>-1.14341392446617</v>
+        <v>-0.162002267834233</v>
       </c>
       <c r="J8" t="n">
-        <v>3.14941478108777</v>
+        <v>4.75290372453202</v>
       </c>
     </row>
     <row r="9">
@@ -2697,19 +2709,19 @@
         <v>22</v>
       </c>
       <c r="B9" t="n">
-        <v>2.45458333333333</v>
+        <v>1.46291666666667</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0.55816989717938</v>
+        <v>0.788119876337363</v>
       </c>
       <c r="F9" t="n">
-        <v>0.74710768780637</v>
+        <v>0.88776115951159</v>
       </c>
       <c r="G9" t="s">
         <v>21</v>
@@ -2718,10 +2730,10 @@
         <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.960382019383048</v>
+        <v>-0.0469491723376296</v>
       </c>
       <c r="J9" t="n">
-        <v>2.43461165118804</v>
+        <v>3.73668627455858</v>
       </c>
     </row>
     <row r="10">
@@ -2729,19 +2741,19 @@
         <v>23</v>
       </c>
       <c r="B10" t="n">
-        <v>2.44</v>
+        <v>1.4725</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0.540791996665277</v>
+        <v>0.76622967903293</v>
       </c>
       <c r="F10" t="n">
-        <v>0.735385610863632</v>
+        <v>0.875345462679124</v>
       </c>
       <c r="G10" t="s">
         <v>21</v>
@@ -2750,10 +2762,10 @@
         <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.902601863504026</v>
+        <v>-0.0875233453584746</v>
       </c>
       <c r="J10" t="n">
-        <v>2.39596942389177</v>
+        <v>3.80867026262001</v>
       </c>
     </row>
     <row r="11">
@@ -2761,19 +2773,19 @@
         <v>24</v>
       </c>
       <c r="B11" t="n">
-        <v>2.53291666666667</v>
+        <v>1.39416666666667</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>0.430762644157288</v>
+        <v>0.630728775878838</v>
       </c>
       <c r="F11" t="n">
-        <v>0.65632510553634</v>
+        <v>0.794184346281667</v>
       </c>
       <c r="G11" t="s">
         <v>21</v>
@@ -2782,10 +2794,10 @@
         <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>-1.08594399196699</v>
+        <v>-0.155013361348565</v>
       </c>
       <c r="J11" t="n">
-        <v>2.98953362753294</v>
+        <v>4.54434750756737</v>
       </c>
     </row>
     <row r="12">
@@ -2793,7 +2805,7 @@
         <v>25</v>
       </c>
       <c r="B12" t="n">
-        <v>2.07541666666667</v>
+        <v>1.15583333333333</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -2802,27 +2814,27 @@
         <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>4.24899940947617</v>
+        <v>0.354196887592052</v>
       </c>
       <c r="F12" t="n">
-        <v>2.06131011967539</v>
+        <v>0.595144425826246</v>
       </c>
       <c r="G12" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.8398255813687</v>
+        <v>-1.12010643244976</v>
       </c>
       <c r="J12" t="n">
-        <v>5.02024046784295</v>
+        <v>7.32539144972933</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" t="n">
         <v>37.2379166666667</v>
@@ -2840,7 +2852,7 @@
         <v>13.5470579887831</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H13" t="n">
         <v>20</v>
@@ -2854,7 +2866,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" t="n">
         <v>1.50166666666667</v>
@@ -2872,7 +2884,7 @@
         <v>0.500101420865677</v>
       </c>
       <c r="G14" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
@@ -2904,7 +2916,7 @@
         <v>2.068803619488</v>
       </c>
       <c r="G15" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="H15" t="n">
         <v>4</v>
@@ -2967,19 +2979,19 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>2.09946125155408</v>
+        <v>2.89225031081641</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
-        <v>0.490932545450672</v>
+        <v>0.522381874300276</v>
       </c>
       <c r="F2" t="n">
-        <v>0.700665787269988</v>
+        <v>0.722759900866309</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
@@ -2988,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.569375389717182</v>
+        <v>-0.810225421142221</v>
       </c>
       <c r="J2" t="n">
-        <v>3.65793444706331</v>
+        <v>4.95190410734731</v>
       </c>
     </row>
     <row r="3">
@@ -2999,7 +3011,7 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>1.85329465395773</v>
+        <v>1.76377952755906</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -3008,10 +3020,10 @@
         <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>0.125234787521159</v>
+        <v>0.359599639597289</v>
       </c>
       <c r="F3" t="n">
-        <v>0.353885274518677</v>
+        <v>0.599666273519938</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>
@@ -3020,10 +3032,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.99707593777447</v>
+        <v>-3.17593197530945</v>
       </c>
       <c r="J3" t="n">
-        <v>4.98831230123778</v>
+        <v>13.8806730384641</v>
       </c>
     </row>
     <row r="4">
@@ -3031,31 +3043,31 @@
         <v>14</v>
       </c>
       <c r="B4" t="n">
-        <v>2.31123083298798</v>
+        <v>2.69291338582677</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>0.821420250591221</v>
+        <v>0.798278946474974</v>
       </c>
       <c r="F4" t="n">
-        <v>0.906322376746388</v>
+        <v>0.89346457482934</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>0.313242299329724</v>
+        <v>-0.241448919769215</v>
       </c>
       <c r="J4" t="n">
-        <v>2.66586875376907</v>
+        <v>2.55660255260384</v>
       </c>
     </row>
     <row r="5">
@@ -3063,7 +3075,7 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>6.39743058433485</v>
+        <v>6.27683381682553</v>
       </c>
       <c r="C5" t="n">
         <v>6</v>
@@ -3072,10 +3084,10 @@
         <v>5</v>
       </c>
       <c r="E5" t="n">
-        <v>6.71801992936272</v>
+        <v>7.59580224310139</v>
       </c>
       <c r="F5" t="n">
-        <v>2.59191433681029</v>
+        <v>2.75604830202618</v>
       </c>
       <c r="G5" t="s">
         <v>17</v>
@@ -3084,10 +3096,10 @@
         <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.257111818518343</v>
+        <v>-0.414094786142125</v>
       </c>
       <c r="J5" t="n">
-        <v>2.30020125602215</v>
+        <v>2.60996053976589</v>
       </c>
     </row>
     <row r="6">
@@ -3095,7 +3107,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>5.55159552424368</v>
+        <v>5.53046000828844</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -3104,10 +3116,10 @@
         <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>6.46551673185392</v>
+        <v>6.60075090770763</v>
       </c>
       <c r="F6" t="n">
-        <v>2.54273803838577</v>
+        <v>2.56919265679077</v>
       </c>
       <c r="G6" t="s">
         <v>17</v>
@@ -3116,10 +3128,10 @@
         <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.0827354765854871</v>
+        <v>-0.109805164491615</v>
       </c>
       <c r="J6" t="n">
-        <v>2.37683501058462</v>
+        <v>2.41588168256562</v>
       </c>
     </row>
     <row r="7">
@@ -3127,7 +3139,7 @@
         <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>4.77331123083299</v>
+        <v>4.7563199336925</v>
       </c>
       <c r="C7" t="n">
         <v>5</v>
@@ -3136,10 +3148,10 @@
         <v>5</v>
       </c>
       <c r="E7" t="n">
-        <v>5.78897232307863</v>
+        <v>5.87426041501293</v>
       </c>
       <c r="F7" t="n">
-        <v>2.40602832965005</v>
+        <v>2.42368735917257</v>
       </c>
       <c r="G7" t="s">
         <v>17</v>
@@ -3148,10 +3160,10 @@
         <v>3</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0518296516289986</v>
+        <v>0.0330528220316951</v>
       </c>
       <c r="J7" t="n">
-        <v>2.33800556481109</v>
+        <v>2.36267411574157</v>
       </c>
     </row>
     <row r="8">
@@ -3159,31 +3171,31 @@
         <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>2.67136344799005</v>
+        <v>1.09697472026523</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>0.334324715694906</v>
+        <v>0.773344906906275</v>
       </c>
       <c r="F8" t="n">
-        <v>0.57820819407451</v>
+        <v>0.879400310954161</v>
       </c>
       <c r="G8" t="s">
         <v>21</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>-1.57524683119024</v>
+        <v>-0.529790923736436</v>
       </c>
       <c r="J8" t="n">
-        <v>4.43437935190773</v>
+        <v>4.52419684207055</v>
       </c>
     </row>
     <row r="9">
@@ -3191,31 +3203,31 @@
         <v>22</v>
       </c>
       <c r="B9" t="n">
-        <v>2.70576046415251</v>
+        <v>1.10650642353916</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0.294813403626982</v>
+        <v>0.702167433312784</v>
       </c>
       <c r="F9" t="n">
-        <v>0.542967221503271</v>
+        <v>0.837954314573762</v>
       </c>
       <c r="G9" t="s">
         <v>21</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>-1.6860281737198</v>
+        <v>-0.642095513784754</v>
       </c>
       <c r="J9" t="n">
-        <v>4.89864290327589</v>
+        <v>4.84686580843949</v>
       </c>
     </row>
     <row r="10">
@@ -3223,19 +3235,19 @@
         <v>23</v>
       </c>
       <c r="B10" t="n">
-        <v>2.56444260256942</v>
+        <v>1.25652714463324</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0.443295677985264</v>
+        <v>0.850833207907142</v>
       </c>
       <c r="F10" t="n">
-        <v>0.665804534368206</v>
+        <v>0.922406205479528</v>
       </c>
       <c r="G10" t="s">
         <v>21</v>
@@ -3244,10 +3256,10 @@
         <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>-1.23987688138076</v>
+        <v>-0.364093981225628</v>
       </c>
       <c r="J10" t="n">
-        <v>3.25378837777388</v>
+        <v>4.11680730203212</v>
       </c>
     </row>
     <row r="11">
@@ -3255,19 +3267,19 @@
         <v>24</v>
       </c>
       <c r="B11" t="n">
-        <v>2.7007874015748</v>
+        <v>1.12349772067965</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>0.315078152544365</v>
+        <v>0.70115990018137</v>
       </c>
       <c r="F11" t="n">
-        <v>0.56131822751837</v>
+        <v>0.837352912565168</v>
       </c>
       <c r="G11" t="s">
         <v>21</v>
@@ -3276,10 +3288,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-1.728467786962</v>
+        <v>-0.527689835443591</v>
       </c>
       <c r="J11" t="n">
-        <v>4.9723297429555</v>
+        <v>4.90821433852284</v>
       </c>
     </row>
     <row r="12">
@@ -3287,7 +3299,7 @@
         <v>25</v>
       </c>
       <c r="B12" t="n">
-        <v>2.78532946539577</v>
+        <v>1.2387070037298</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -3296,30 +3308,30 @@
         <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>8.24162548220357</v>
+        <v>0.501867647533846</v>
       </c>
       <c r="F12" t="n">
-        <v>2.87082313669853</v>
+        <v>0.70842617648831</v>
       </c>
       <c r="G12" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>1.123444850123</v>
+        <v>-0.951378858755662</v>
       </c>
       <c r="J12" t="n">
-        <v>2.40417780294168</v>
+        <v>5.81158807875614</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" t="n">
-        <v>40.9937836717779</v>
+        <v>40.9378367177787</v>
       </c>
       <c r="C13" t="n">
         <v>39</v>
@@ -3328,30 +3340,30 @@
         <v>18</v>
       </c>
       <c r="E13" t="n">
-        <v>257.194405785687</v>
+        <v>259.32117558361</v>
       </c>
       <c r="F13" t="n">
-        <v>16.0372817455355</v>
+        <v>16.1034522877428</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H13" t="n">
         <v>26</v>
       </c>
       <c r="I13" t="n">
-        <v>0.482331814203927</v>
+        <v>0.464604701856054</v>
       </c>
       <c r="J13" t="n">
-        <v>2.2918689077342</v>
+        <v>2.31822966742079</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" t="n">
-        <v>1.50600911728139</v>
+        <v>1.50352258599254</v>
       </c>
       <c r="C14" t="n">
         <v>2</v>
@@ -3360,10 +3372,10 @@
         <v>2</v>
       </c>
       <c r="E14" t="n">
-        <v>0.250067523963275</v>
+        <v>0.255066359046046</v>
       </c>
       <c r="F14" t="n">
-        <v>0.500067519404405</v>
+        <v>0.505040947890412</v>
       </c>
       <c r="G14" t="s">
         <v>13</v>
@@ -3372,10 +3384,10 @@
         <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.0240382052029463</v>
+        <v>-0.110661328439501</v>
       </c>
       <c r="J14" t="n">
-        <v>1.00057783530938</v>
+        <v>1.46152997698752</v>
       </c>
     </row>
     <row r="15">
@@ -3383,7 +3395,7 @@
         <v>30</v>
       </c>
       <c r="B15" t="n">
-        <v>3.89059262329051</v>
+        <v>3.82884376295068</v>
       </c>
       <c r="C15" t="n">
         <v>4</v>
@@ -3392,22 +3404,22 @@
         <v>5</v>
       </c>
       <c r="E15" t="n">
-        <v>4.33711295710974</v>
+        <v>4.59051097599446</v>
       </c>
       <c r="F15" t="n">
-        <v>2.08257363786007</v>
+        <v>2.1425477768289</v>
       </c>
       <c r="G15" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H15" t="n">
         <v>3</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.0658939001796739</v>
+        <v>-0.108340112560477</v>
       </c>
       <c r="J15" t="n">
-        <v>1.74452728977538</v>
+        <v>1.84290489610367</v>
       </c>
     </row>
   </sheetData>
@@ -3461,19 +3473,19 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>1.73913043478261</v>
+        <v>3.2433110367893</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
-        <v>0.432308531926505</v>
+        <v>0.507277396062188</v>
       </c>
       <c r="F2" t="n">
-        <v>0.657501735303037</v>
+        <v>0.712234087967002</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
@@ -3482,10 +3494,10 @@
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0.758506372233256</v>
+        <v>-1.41971297136486</v>
       </c>
       <c r="J2" t="n">
-        <v>4.2046285188747</v>
+        <v>8.27268036278377</v>
       </c>
     </row>
     <row r="3">
@@ -3493,7 +3505,7 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>1.90886287625418</v>
+        <v>1.85869565217391</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -3502,10 +3514,10 @@
         <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0829004631897119</v>
+        <v>0.221857376750955</v>
       </c>
       <c r="F3" t="n">
-        <v>0.287924405338818</v>
+        <v>0.471017384765101</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>
@@ -3514,10 +3526,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-2.84125906125799</v>
+        <v>-4.27192845684806</v>
       </c>
       <c r="J3" t="n">
-        <v>9.07275305318062</v>
+        <v>23.74301067607</v>
       </c>
     </row>
     <row r="4">
@@ -3525,19 +3537,19 @@
         <v>14</v>
       </c>
       <c r="B4" t="n">
-        <v>1.65969899665552</v>
+        <v>3.34615384615385</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
-        <v>0.589537649906942</v>
+        <v>0.556227872545864</v>
       </c>
       <c r="F4" t="n">
-        <v>0.767813551525982</v>
+        <v>0.74580686008233</v>
       </c>
       <c r="G4" t="s">
         <v>15</v>
@@ -3546,10 +3558,10 @@
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>1.16397296997867</v>
+        <v>-0.948214723607332</v>
       </c>
       <c r="J4" t="n">
-        <v>4.58367969633893</v>
+        <v>3.38792816322407</v>
       </c>
     </row>
     <row r="5">
@@ -3557,7 +3569,7 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>7.58361204013378</v>
+        <v>7.38377926421405</v>
       </c>
       <c r="C5" t="n">
         <v>8</v>
@@ -3566,10 +3578,10 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>4.80053455731098</v>
+        <v>6.56472411525168</v>
       </c>
       <c r="F5" t="n">
-        <v>2.19101222208161</v>
+        <v>2.56217175756265</v>
       </c>
       <c r="G5" t="s">
         <v>17</v>
@@ -3578,10 +3590,10 @@
         <v>4</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.656780741931148</v>
+        <v>-1.1160312753777</v>
       </c>
       <c r="J5" t="n">
-        <v>2.8394053878592</v>
+        <v>4.2938246837423</v>
       </c>
     </row>
     <row r="6">
@@ -3589,7 +3601,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>7.88210702341137</v>
+        <v>7.7123745819398</v>
       </c>
       <c r="C6" t="n">
         <v>8</v>
@@ -3598,10 +3610,10 @@
         <v>10</v>
       </c>
       <c r="E6" t="n">
-        <v>4.94257497096318</v>
+        <v>6.68540322693497</v>
       </c>
       <c r="F6" t="n">
-        <v>2.22319026872717</v>
+        <v>2.58561467100861</v>
       </c>
       <c r="G6" t="s">
         <v>17</v>
@@ -3610,10 +3622,10 @@
         <v>4</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.777575852998131</v>
+        <v>-1.25406783569881</v>
       </c>
       <c r="J6" t="n">
-        <v>2.68460325564096</v>
+        <v>4.45598051564413</v>
       </c>
     </row>
     <row r="7">
@@ -3621,19 +3633,19 @@
         <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>6.48745819397993</v>
+        <v>6.00919732441472</v>
       </c>
       <c r="C7" t="n">
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>5.79649529113782</v>
+        <v>9.29112872755769</v>
       </c>
       <c r="F7" t="n">
-        <v>2.40759118023343</v>
+        <v>3.0481352869513</v>
       </c>
       <c r="G7" t="s">
         <v>17</v>
@@ -3642,10 +3654,10 @@
         <v>3</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.0868102648746051</v>
+        <v>-0.590125629294126</v>
       </c>
       <c r="J7" t="n">
-        <v>2.17893097267848</v>
+        <v>2.85027170988591</v>
       </c>
     </row>
     <row r="8">
@@ -3653,19 +3665,19 @@
         <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>2.6128762541806</v>
+        <v>1.23745819397993</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>0.401474230699263</v>
+        <v>0.681641734652468</v>
       </c>
       <c r="F8" t="n">
-        <v>0.633619941841529</v>
+        <v>0.825615972866603</v>
       </c>
       <c r="G8" t="s">
         <v>21</v>
@@ -3674,10 +3686,10 @@
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>-1.39680079874293</v>
+        <v>-0.187861509601818</v>
       </c>
       <c r="J8" t="n">
-        <v>3.73868131604073</v>
+        <v>4.87146505087764</v>
       </c>
     </row>
     <row r="9">
@@ -3685,19 +3697,19 @@
         <v>22</v>
       </c>
       <c r="B9" t="n">
-        <v>2.57107023411371</v>
+        <v>1.33612040133779</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0.417538937322456</v>
+        <v>0.626677488420257</v>
       </c>
       <c r="F9" t="n">
-        <v>0.646172529068248</v>
+        <v>0.791629640943451</v>
       </c>
       <c r="G9" t="s">
         <v>21</v>
@@ -3706,10 +3718,10 @@
         <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>-1.22429007454068</v>
+        <v>-0.0954422212813042</v>
       </c>
       <c r="J9" t="n">
-        <v>3.29920583090743</v>
+        <v>4.74530676518209</v>
       </c>
     </row>
     <row r="10">
@@ -3717,19 +3729,19 @@
         <v>23</v>
       </c>
       <c r="B10" t="n">
-        <v>2.45401337792642</v>
+        <v>1.47408026755853</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0.527590573879459</v>
+        <v>0.69974601530905</v>
       </c>
       <c r="F10" t="n">
-        <v>0.726354303270421</v>
+        <v>0.836508227878871</v>
       </c>
       <c r="G10" t="s">
         <v>21</v>
@@ -3738,10 +3750,10 @@
         <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.934244949276258</v>
+        <v>0.0690693578181745</v>
       </c>
       <c r="J10" t="n">
-        <v>2.47652685816109</v>
+        <v>3.82697265663433</v>
       </c>
     </row>
     <row r="11">
@@ -3749,19 +3761,19 @@
         <v>24</v>
       </c>
       <c r="B11" t="n">
-        <v>2.63210702341137</v>
+        <v>1.30100334448161</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>0.375001749205861</v>
+        <v>0.528568030114328</v>
       </c>
       <c r="F11" t="n">
-        <v>0.612373863914733</v>
+        <v>0.727026842774273</v>
       </c>
       <c r="G11" t="s">
         <v>21</v>
@@ -3770,10 +3782,10 @@
         <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>-1.44312863949145</v>
+        <v>0.12419057492563</v>
       </c>
       <c r="J11" t="n">
-        <v>3.94051713476662</v>
+        <v>5.27054693096125</v>
       </c>
     </row>
     <row r="12">
@@ -3781,7 +3793,7 @@
         <v>25</v>
       </c>
       <c r="B12" t="n">
-        <v>1.16387959866221</v>
+        <v>1.18311036789298</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -3790,30 +3802,30 @@
         <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>0.681070793859588</v>
+        <v>0.327111991156015</v>
       </c>
       <c r="F12" t="n">
-        <v>0.825270133871079</v>
+        <v>0.571937051742598</v>
       </c>
       <c r="G12" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>6.40850096630148</v>
+        <v>-0.819219037255628</v>
       </c>
       <c r="J12" t="n">
-        <v>48.2833634399709</v>
+        <v>7.36617380658743</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" t="n">
-        <v>40.1780936454849</v>
+        <v>39.8386287625418</v>
       </c>
       <c r="C13" t="n">
         <v>40</v>
@@ -3822,27 +3834,27 @@
         <v>36</v>
       </c>
       <c r="E13" t="n">
-        <v>160.462816781181</v>
+        <v>175.645067239473</v>
       </c>
       <c r="F13" t="n">
-        <v>12.6673918697252</v>
+        <v>13.2531153786373</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H13" t="n">
         <v>19</v>
       </c>
       <c r="I13" t="n">
-        <v>0.192994685488351</v>
+        <v>-0.029641153847778</v>
       </c>
       <c r="J13" t="n">
-        <v>2.45754144044001</v>
+        <v>2.90181239298273</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" t="n">
         <v>1.48244147157191</v>
@@ -3860,7 +3872,7 @@
         <v>0.499900635233765</v>
       </c>
       <c r="G14" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
@@ -3877,7 +3889,7 @@
         <v>30</v>
       </c>
       <c r="B15" t="n">
-        <v>2.57274247491639</v>
+        <v>2.50919732441472</v>
       </c>
       <c r="C15" t="n">
         <v>2</v>
@@ -3886,22 +3898,22 @@
         <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>3.75286310015253</v>
+        <v>3.89363918780873</v>
       </c>
       <c r="F15" t="n">
-        <v>1.93723078133518</v>
+        <v>1.97323064739243</v>
       </c>
       <c r="G15" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H15" t="n">
         <v>3</v>
       </c>
       <c r="I15" t="n">
-        <v>1.04219159066618</v>
+        <v>0.987574149294821</v>
       </c>
       <c r="J15" t="n">
-        <v>2.70611947771118</v>
+        <v>2.7745647047563</v>
       </c>
     </row>
   </sheetData>
